--- a/tests/VN9999 - Project Name_Topline.xlsx
+++ b/tests/VN9999 - Project Name_Topline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/723e82af93afbbb8/DevZone/PyPackages/packaging_dpkits/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="615" documentId="11_6AD19A71A9EBD20D79F760C9B0C04CBBD40271FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75F570C2-2867-45EC-B5A2-3094173C232A}"/>
+  <xr:revisionPtr revIDLastSave="615" documentId="11_6AD19A71A9EBD20D79F760B348444923D40271FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CF3A0AD-FF49-41A9-8FE0-2228FB79F9FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1534,8 +1534,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Table_Count'!B3" display="Table_Count" xr:uid="{3CA3F63D-8219-47AB-BE17-A40A037CD2C9}"/>
-    <hyperlink ref="B3" location="'Table_Pct'!B3" display="Table_Pct" xr:uid="{C63F1B80-AB1C-49E6-9DD2-FA09A0AB8C54}"/>
+    <hyperlink ref="B2" location="'Table_Count'!B3" display="Table_Count" xr:uid="{14FFA6E3-5534-40CA-B79F-6FA2951E7137}"/>
+    <hyperlink ref="B3" location="'Table_Pct'!B3" display="Table_Pct" xr:uid="{A6FB9E41-E1CE-462C-921C-9F57245E3FAF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5120,7 +5120,7 @@
     <mergeCell ref="B22:B35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" location="'Content'!B2" display="Content" xr:uid="{0E25E873-2035-413D-915E-A60D46E7442B}"/>
+    <hyperlink ref="A3" location="'Content'!B2" display="Content" xr:uid="{407AB0B1-476B-4FEF-BB29-6FE2146BBFD8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8705,7 +8705,7 @@
     <mergeCell ref="B22:B35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" location="'Content'!B3" display="Content" xr:uid="{914C5FE7-80D2-429C-B814-2F62290BB85C}"/>
+    <hyperlink ref="A3" location="'Content'!B3" display="Content" xr:uid="{8FA80BD6-32C4-4C3A-8790-FA38F08B9BD2}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
